--- a/biology/Botanique/Cocculus_orbiculatus/Cocculus_orbiculatus.xlsx
+++ b/biology/Botanique/Cocculus_orbiculatus/Cocculus_orbiculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cocculus orbiculatus (L.) DC. est une espèce de liane sauvage de la famille des Menispermaceae. On la trouve en Asie tropicale, également dans les Mascareignes.
-À La Réunion où elle est naturalisée et considérée comme envahissante, on la nomme liane d'amarrage ou liane du diable[1],[2]. Elle se développe dans l'est de l'île, plutôt en milieu humide et jusqu'à 500 mètres d'altitude[3].
+À La Réunion où elle est naturalisée et considérée comme envahissante, on la nomme liane d'amarrage ou liane du diable,. Elle se développe dans l'est de l'île, plutôt en milieu humide et jusqu'à 500 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liane est utilisée dans les constructions traditionnelles réunionnaises (rameaux et tiges)[4] et en vannerie sauvage.
-En Asie, les usages médicinaux sont variés : la tige est utilisée comme diurétique pour soigner les œdèmes, et les racines pour lutter contre la fièvre et l’épilepsie. En Chine, ce sont la tige et les feuilles qui sont prescrites contre les flatulences, les maux d’estomac et les œdèmes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liane est utilisée dans les constructions traditionnelles réunionnaises (rameaux et tiges) et en vannerie sauvage.
+En Asie, les usages médicinaux sont variés : la tige est utilisée comme diurétique pour soigner les œdèmes, et les racines pour lutter contre la fièvre et l’épilepsie. En Chine, ce sont la tige et les feuilles qui sont prescrites contre les flatulences, les maux d’estomac et les œdèmes.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synonymes
 Il y a de nombreux synonymes incluant:
